--- a/DOM_Banner/output/dept_banner/Indu Partha_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Indu Partha_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,19 +360,19 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
@@ -385,166 +385,76 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Swetha Atluri, Devea R. De, Terri Shih, Rahul Masson, Khiem A. Tran, Indu Partha, Jennifer L. Hsiao, Vivian Y. Shi</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386592229</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Perspectives and experiences of primary care providers on hidradenitis suppurativa care</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5060770550", "https://openalex.org/A5085850937", "https://openalex.org/A5008779287", "https://openalex.org/A5043781144", "https://openalex.org/A5041588654", "https://openalex.org/A5077319214", "https://openalex.org/A5038370467", "https://openalex.org/A5002888235"), au_display_name = c("Swetha Atluri", "Devea R. De", "Terri Shih", "Rahul Masson", "Khiem A. Tran", "Indu Partha", "Jennifer L. Hsiao", "Vivian Y. Shi"), au_orcid = c("https://orcid.org/0000-0002-1416-5119", 
-"https://orcid.org/0000-0003-4921-2066", "https://orcid.org/0000-0002-1606-1014", "https://orcid.org/0000-0003-1715-560X", NA, NA, "https://orcid.org/0000-0002-8843-3630", "https://orcid.org/0000-0002-7510-9428"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("University of Arizona College of Medicine  Tucson AZ USA", "University at Buffalo, Jacobs School of Medicine and Biomedical Sciences  Buffalo NY USA", "David Geffen School of Medicine University of California  Los Angeles CA USA", 
-"Keck School of Medicine University of Southern California  Los Angeles CA USA", "Department of Dermatology University of Arkansas for Medical Sciences  Little Rock AR USA", "Department of Internal Medicine University of Arizona College of Medicine  Tucson AZ USA", "Department of Dermatology University of Southern California  Los Angeles CA USA", "Department of Dermatology University of Arkansas for Medical Sciences  Little Rock AR USA"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I63190737", 
-"https://openalex.org/I2803209242", "https://openalex.org/I1174212", "https://openalex.org/I79620101", "https://openalex.org/I138006243", "https://openalex.org/I1174212", "https://openalex.org/I79620101"), institution_display_name = c("University of Arizona", "University at Buffalo, State University of New York", "University of California System", "University of Southern California", "University of Arkansas for Medical Sciences", "University of Arizona", "University of Southern California", "University of Arkansas for Medical Sciences"
-), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/01y64my43", "https://ror.org/00pjdza24", "https://ror.org/03taz7m60", "https://ror.org/00xcryt71", "https://ror.org/03m2x1q45", "https://ror.org/03taz7m60", "https://ror.org/00xcryt71"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", "education", "education", "education", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I1327163397, https://openalex.org/I63190737", "https://openalex.org/I2803209242", "https://openalex.org/I1174212", "https://openalex.org/I2799691083, https://openalex.org/I79620101", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I1174212", "https://openalex.org/I2799691083, https://openalex.org/I79620101"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>2023-09-10</t>
@@ -557,142 +467,57 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S32635664</t>
+          <t>Wiley-Blackwell</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Wiley-Blackwell</t>
+          <t>https://doi.org/10.1111/ijd.16835</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0011-9059</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37691008</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1111/ijd.16835</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4386592229</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4386592229", doi = "https://doi.org/10.1111/ijd.16835", pmid = "https://pubmed.ncbi.nlm.nih.gov/37691008")</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/ijd.16835</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2983169242", "https://openalex.org/W3021674315", "https://openalex.org/W3184455188")</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2295128854", "https://openalex.org/W2409868429", "https://openalex.org/W1493465546", "https://openalex.org/W2913482614", "https://openalex.org/W2952349322", "https://openalex.org/W1944901344", "https://openalex.org/W4233460161", "https://openalex.org/W2942507223", "https://openalex.org/W4254397001", "https://openalex.org/W4251208640")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Indu Partha_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Indu Partha_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine  Tucson AZ USA; University at Buffalo, Jacobs School of Medicine and Biomedical Sciences  Buffalo NY USA; David Geffen School of Medicine University of California  Los Angeles CA USA; Keck School of Medicine University of Southern California  Los Angeles CA USA; Department of Dermatology University of Arkansas for Medical Sciences  Little Rock AR USA; Department of Internal Medicine University of Arizona College of Medicine  Tucson AZ USA; Department of Dermatology University of Southern California  Los Angeles CA USA; Department of Dermatology University of Arkansas for Medical Sciences  Little Rock AR USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386592229</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Perspectives and experiences of primary care providers on hidradenitis suppurativa care</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>International Journal of Dermatology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/ijd.16835</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37691008</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/ijd.16835</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
